--- a/report/summary_CL_M15_2020-2023_0.xlsx
+++ b/report/summary_CL_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,39 +628,39 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K4" t="n">
-        <v>394.3629999999953</v>
+        <v>409.1629999999947</v>
       </c>
       <c r="L4" t="n">
-        <v>14709</v>
+        <v>21107</v>
       </c>
       <c r="M4" t="n">
         <v>-3.200999999999993</v>
       </c>
       <c r="N4" t="n">
-        <v>391.1619999999953</v>
+        <v>405.9619999999946</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5147868651845808</v>
+        <v>0.5316245795233808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,39 +679,39 @@
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="J5" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>308.7529999999972</v>
+        <v>394.3629999999953</v>
       </c>
       <c r="L5" t="n">
-        <v>16509</v>
+        <v>14709</v>
       </c>
       <c r="M5" t="n">
         <v>-3.200999999999993</v>
       </c>
       <c r="N5" t="n">
-        <v>305.5519999999972</v>
+        <v>391.1619999999953</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5086922284814344</v>
+        <v>0.5147868651845808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,39 +730,39 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H6" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I6" t="n">
         <v>0.02</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K6" t="n">
-        <v>266.3369999999996</v>
+        <v>386.2469999999978</v>
       </c>
       <c r="L6" t="n">
-        <v>8455</v>
+        <v>14650</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.130000000000003</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N6" t="n">
-        <v>264.2069999999996</v>
+        <v>383.0459999999978</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5397989355410999</v>
+        <v>0.504505119453925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,39 +781,39 @@
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>264.1519999999981</v>
+        <v>332.7719999999978</v>
       </c>
       <c r="L7" t="n">
-        <v>14817</v>
+        <v>11168</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.200999999999993</v>
+        <v>-2.600000000000009</v>
       </c>
       <c r="N7" t="n">
-        <v>260.9509999999981</v>
+        <v>330.1719999999978</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5159613956941351</v>
+        <v>0.509939111747851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -835,36 +835,36 @@
         <v>70</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I8" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="K8" t="n">
-        <v>227.5919999999988</v>
+        <v>308.7529999999972</v>
       </c>
       <c r="L8" t="n">
-        <v>5803</v>
+        <v>16509</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.130000000000003</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N8" t="n">
-        <v>225.4619999999989</v>
+        <v>305.5519999999972</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5342064449422712</v>
+        <v>0.5086922284814344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,39 +883,39 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I9" t="n">
         <v>0.08</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="K9" t="n">
-        <v>223.6499999999987</v>
+        <v>277.3139999999975</v>
       </c>
       <c r="L9" t="n">
-        <v>24615</v>
+        <v>15012</v>
       </c>
       <c r="M9" t="n">
-        <v>-3.475000000000009</v>
+        <v>-2.850000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>220.1749999999986</v>
+        <v>274.4639999999975</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5011984562258786</v>
+        <v>0.5208499866773248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -934,39 +934,39 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="J10" t="n">
         <v>0.02</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3600000000002</v>
+        <v>266.3369999999996</v>
       </c>
       <c r="L10" t="n">
-        <v>7913</v>
+        <v>8455</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.060000000000002</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N10" t="n">
-        <v>208.3000000000002</v>
+        <v>264.2069999999996</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5463161885504866</v>
+        <v>0.5397989355410999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -985,39 +985,39 @@
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.14</v>
       </c>
-      <c r="J11" t="n">
-        <v>0.06</v>
-      </c>
       <c r="K11" t="n">
-        <v>205.920999999999</v>
+        <v>264.1519999999981</v>
       </c>
       <c r="L11" t="n">
-        <v>5713</v>
+        <v>14817</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.130000000000003</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N11" t="n">
-        <v>203.790999999999</v>
+        <v>260.9509999999981</v>
       </c>
       <c r="O11" t="n">
-        <v>0.536320672151234</v>
+        <v>0.5159613956941351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>2023</v>
       </c>
       <c r="F12" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -1045,30 +1045,30 @@
         <v>0.16</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J12" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="K12" t="n">
-        <v>195.2499999999999</v>
+        <v>232.4879999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>4887</v>
+        <v>5063</v>
       </c>
       <c r="M12" t="n">
         <v>-2.130000000000003</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1199999999999</v>
+        <v>230.3579999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5074687947616124</v>
+        <v>0.5113569030219237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1087,39 +1087,39 @@
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.02</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.14</v>
-      </c>
       <c r="K13" t="n">
-        <v>163.8849999999993</v>
+        <v>227.5919999999988</v>
       </c>
       <c r="L13" t="n">
-        <v>5583</v>
+        <v>5803</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.724999999999994</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N13" t="n">
-        <v>162.1599999999993</v>
+        <v>225.4619999999989</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5314347125201505</v>
+        <v>0.5342064449422712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1138,39 +1138,39 @@
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I14" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7560000000004</v>
+        <v>223.6499999999987</v>
       </c>
       <c r="L14" t="n">
-        <v>3943</v>
+        <v>24615</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.210000000000001</v>
+        <v>-3.475000000000009</v>
       </c>
       <c r="N14" t="n">
-        <v>131.5460000000004</v>
+        <v>220.1749999999986</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5511032208977935</v>
+        <v>0.5011984562258786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1189,39 +1189,39 @@
         <v>2023</v>
       </c>
       <c r="F15" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>3.100000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K15" t="n">
-        <v>130.2060000000005</v>
+        <v>210.3600000000002</v>
       </c>
       <c r="L15" t="n">
-        <v>2730</v>
+        <v>7913</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.724999999999994</v>
+        <v>-2.060000000000002</v>
       </c>
       <c r="N15" t="n">
-        <v>128.4810000000005</v>
+        <v>208.3000000000002</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5043956043956044</v>
+        <v>0.5463161885504866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1240,39 +1240,39 @@
         <v>2023</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K16" t="n">
-        <v>121.9740000000003</v>
+        <v>205.920999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>2436</v>
+        <v>5713</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.809999999999988</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N16" t="n">
-        <v>120.1640000000003</v>
+        <v>203.790999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5036945812807881</v>
+        <v>0.536320672151234</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1291,39 +1291,39 @@
         <v>2023</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K17" t="n">
-        <v>118.38</v>
+        <v>199.6179999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>2064</v>
+        <v>6167</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.809999999999988</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N17" t="n">
-        <v>116.57</v>
+        <v>197.4079999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4467054263565892</v>
+        <v>0.5182422571752878</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1342,39 +1342,39 @@
         <v>2023</v>
       </c>
       <c r="F18" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="K18" t="n">
-        <v>105.1130000000002</v>
+        <v>195.2499999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>2558</v>
+        <v>4887</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.724999999999994</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N18" t="n">
-        <v>103.3880000000002</v>
+        <v>193.1199999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5062548866301798</v>
+        <v>0.5074687947616124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1393,39 +1393,39 @@
         <v>2023</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>3.100000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0.16</v>
       </c>
       <c r="K19" t="n">
-        <v>101.9830000000002</v>
+        <v>166.8390000000004</v>
       </c>
       <c r="L19" t="n">
-        <v>2818</v>
+        <v>3917</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>100.1330000000002</v>
+        <v>164.6290000000004</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4840312278211498</v>
+        <v>0.4975746744957876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1444,39 +1444,39 @@
         <v>2023</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.08</v>
       </c>
       <c r="J20" t="n">
         <v>0.12</v>
       </c>
       <c r="K20" t="n">
-        <v>99.06600000000022</v>
+        <v>165.6479999999992</v>
       </c>
       <c r="L20" t="n">
-        <v>2266</v>
+        <v>4311</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.809999999999988</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N20" t="n">
-        <v>97.25600000000023</v>
+        <v>163.9229999999992</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5529567519858782</v>
+        <v>0.5244722802134075</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1495,39 +1495,39 @@
         <v>2023</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="J21" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="K21" t="n">
-        <v>91.7150000000001</v>
+        <v>163.8849999999993</v>
       </c>
       <c r="L21" t="n">
-        <v>2684</v>
+        <v>5583</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N21" t="n">
-        <v>89.86500000000009</v>
+        <v>162.1599999999993</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4694485842026825</v>
+        <v>0.5314347125201505</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1546,39 +1546,39 @@
         <v>2023</v>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.06</v>
       </c>
-      <c r="I22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.12</v>
-      </c>
       <c r="K22" t="n">
-        <v>89.28000000000009</v>
+        <v>133.7560000000004</v>
       </c>
       <c r="L22" t="n">
-        <v>2994</v>
+        <v>3943</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>87.43000000000009</v>
+        <v>131.5460000000004</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5454241816967268</v>
+        <v>0.5511032208977935</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1597,39 +1597,39 @@
         <v>2023</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
         <v>0.14</v>
       </c>
       <c r="J23" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>78.6839999999999</v>
+        <v>130.2060000000005</v>
       </c>
       <c r="L23" t="n">
-        <v>3288</v>
+        <v>2730</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N23" t="n">
-        <v>76.83399999999989</v>
+        <v>128.4810000000005</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5249391727493917</v>
+        <v>0.5043956043956044</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1648,39 +1648,39 @@
         <v>2023</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>3.100000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="J24" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>70.4749999999997</v>
+        <v>121.9740000000003</v>
       </c>
       <c r="L24" t="n">
-        <v>2870</v>
+        <v>2436</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.809999999999988</v>
       </c>
       <c r="N24" t="n">
-        <v>68.62499999999969</v>
+        <v>120.1640000000003</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5198606271777003</v>
+        <v>0.5036945812807881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1699,39 +1699,39 @@
         <v>2023</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.14</v>
-      </c>
       <c r="K25" t="n">
-        <v>70.47399999999985</v>
+        <v>118.8659999999998</v>
       </c>
       <c r="L25" t="n">
-        <v>2104</v>
+        <v>5769</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>68.62399999999985</v>
+        <v>116.6559999999998</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5261406844106464</v>
+        <v>0.4914196567862715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1750,39 +1750,39 @@
         <v>2023</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="J26" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>68.79499999999972</v>
+        <v>118.38</v>
       </c>
       <c r="L26" t="n">
-        <v>1960</v>
+        <v>2064</v>
       </c>
       <c r="M26" t="n">
         <v>-1.809999999999988</v>
       </c>
       <c r="N26" t="n">
-        <v>66.98499999999973</v>
+        <v>116.57</v>
       </c>
       <c r="O26" t="n">
-        <v>0.525</v>
+        <v>0.4467054263565892</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1801,39 +1801,39 @@
         <v>2023</v>
       </c>
       <c r="F27" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="J27" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="K27" t="n">
-        <v>62.50400000000023</v>
+        <v>105.1130000000002</v>
       </c>
       <c r="L27" t="n">
-        <v>2834</v>
+        <v>2558</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.75</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N27" t="n">
-        <v>60.75400000000023</v>
+        <v>103.3880000000002</v>
       </c>
       <c r="O27" t="n">
-        <v>0.515878616796048</v>
+        <v>0.5062548866301798</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1855,36 +1855,36 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>3.8</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I28" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="K28" t="n">
-        <v>58.84399999999984</v>
+        <v>101.9830000000002</v>
       </c>
       <c r="L28" t="n">
-        <v>2104</v>
+        <v>2818</v>
       </c>
       <c r="M28" t="n">
         <v>-1.850000000000001</v>
       </c>
       <c r="N28" t="n">
-        <v>56.99399999999984</v>
+        <v>100.1330000000002</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5446768060836502</v>
+        <v>0.4840312278211498</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1903,39 +1903,39 @@
         <v>2023</v>
       </c>
       <c r="F29" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="K29" t="n">
-        <v>43.88099999999986</v>
+        <v>99.06600000000022</v>
       </c>
       <c r="L29" t="n">
-        <v>2368</v>
+        <v>2266</v>
       </c>
       <c r="M29" t="n">
         <v>-1.809999999999988</v>
       </c>
       <c r="N29" t="n">
-        <v>42.07099999999987</v>
+        <v>97.25600000000023</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5160472972972973</v>
+        <v>0.5529567519858782</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1954,33 +1954,594 @@
         <v>2023</v>
       </c>
       <c r="F30" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.1</v>
       </c>
       <c r="K30" t="n">
-        <v>40.72299999999966</v>
+        <v>98.54300000000025</v>
       </c>
       <c r="L30" t="n">
-        <v>1902</v>
+        <v>2681</v>
       </c>
       <c r="M30" t="n">
         <v>-1.809999999999988</v>
       </c>
       <c r="N30" t="n">
+        <v>96.73300000000026</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.5251771726967549</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K31" t="n">
+        <v>91.7150000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2684</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N31" t="n">
+        <v>89.86500000000009</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.4694485842026825</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F32" t="n">
+        <v>60</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>89.28000000000009</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2994</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>87.43000000000009</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5454241816967268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F33" t="n">
+        <v>10</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K33" t="n">
+        <v>78.6839999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3288</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N33" t="n">
+        <v>76.83399999999989</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.5249391727493917</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K34" t="n">
+        <v>70.4749999999997</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2870</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N34" t="n">
+        <v>68.62499999999969</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.5198606271777003</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>70.47399999999985</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2104</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N35" t="n">
+        <v>68.62399999999985</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.5261406844106464</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F36" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K36" t="n">
+        <v>69.20399999999988</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3094</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N36" t="n">
+        <v>67.35399999999987</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.532967032967033</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K37" t="n">
+        <v>68.79499999999972</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1960</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N37" t="n">
+        <v>66.98499999999973</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F38" t="n">
+        <v>80</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K38" t="n">
+        <v>62.50400000000023</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2834</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="N38" t="n">
+        <v>60.75400000000023</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.515878616796048</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K39" t="n">
+        <v>58.84399999999984</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2104</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>56.99399999999984</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5446768060836502</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F40" t="n">
+        <v>70</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K40" t="n">
+        <v>43.88099999999986</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2368</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N40" t="n">
+        <v>42.07099999999987</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.5160472972972973</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F41" t="n">
+        <v>90</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>40.72299999999966</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1902</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N41" t="n">
         <v>38.91299999999967</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O41" t="n">
         <v>0.5052576235541535</v>
       </c>
     </row>

--- a/report/summary_CL_M15_2020-2023_0.xlsx
+++ b/report/summary_CL_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -577,39 +577,39 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="K3" t="n">
-        <v>428.9500000000012</v>
+        <v>465.6730000000028</v>
       </c>
       <c r="L3" t="n">
-        <v>13573</v>
+        <v>16694</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.125999999999991</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N3" t="n">
-        <v>424.8240000000013</v>
+        <v>462.4720000000028</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4760185662712739</v>
+        <v>0.5108422187612316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,39 +628,39 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="K4" t="n">
-        <v>409.1629999999947</v>
+        <v>428.9500000000012</v>
       </c>
       <c r="L4" t="n">
-        <v>21107</v>
+        <v>13573</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.200999999999993</v>
+        <v>-4.125999999999991</v>
       </c>
       <c r="N4" t="n">
-        <v>405.9619999999946</v>
+        <v>424.8240000000013</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5316245795233808</v>
+        <v>0.4760185662712739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,39 +679,39 @@
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K5" t="n">
-        <v>394.3629999999953</v>
+        <v>409.1629999999947</v>
       </c>
       <c r="L5" t="n">
-        <v>14709</v>
+        <v>21107</v>
       </c>
       <c r="M5" t="n">
         <v>-3.200999999999993</v>
       </c>
       <c r="N5" t="n">
-        <v>391.1619999999953</v>
+        <v>405.9619999999946</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5147868651845808</v>
+        <v>0.5316245795233808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,39 +730,39 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G6" t="n">
         <v>0.7</v>
       </c>
       <c r="H6" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>386.2469999999978</v>
+        <v>394.3629999999953</v>
       </c>
       <c r="L6" t="n">
-        <v>14650</v>
+        <v>14709</v>
       </c>
       <c r="M6" t="n">
         <v>-3.200999999999993</v>
       </c>
       <c r="N6" t="n">
-        <v>383.0459999999978</v>
+        <v>391.1619999999953</v>
       </c>
       <c r="O6" t="n">
-        <v>0.504505119453925</v>
+        <v>0.5147868651845808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,39 +781,39 @@
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.06</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
-        <v>332.7719999999978</v>
+        <v>386.2469999999978</v>
       </c>
       <c r="L7" t="n">
-        <v>11168</v>
+        <v>14650</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.600000000000009</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N7" t="n">
-        <v>330.1719999999978</v>
+        <v>383.0459999999978</v>
       </c>
       <c r="O7" t="n">
-        <v>0.509939111747851</v>
+        <v>0.504505119453925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -832,39 +832,39 @@
         <v>2023</v>
       </c>
       <c r="F8" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>308.7529999999972</v>
+        <v>332.7719999999978</v>
       </c>
       <c r="L8" t="n">
-        <v>16509</v>
+        <v>11168</v>
       </c>
       <c r="M8" t="n">
-        <v>-3.200999999999993</v>
+        <v>-2.600000000000009</v>
       </c>
       <c r="N8" t="n">
-        <v>305.5519999999972</v>
+        <v>330.1719999999978</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5086922284814344</v>
+        <v>0.509939111747851</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,39 +883,39 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0.04</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="J9" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="K9" t="n">
-        <v>277.3139999999975</v>
+        <v>308.7529999999972</v>
       </c>
       <c r="L9" t="n">
-        <v>15012</v>
+        <v>16509</v>
       </c>
       <c r="M9" t="n">
-        <v>-2.850000000000001</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N9" t="n">
-        <v>274.4639999999975</v>
+        <v>305.5519999999972</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5208499866773248</v>
+        <v>0.5086922284814344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -934,39 +934,39 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H10" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="K10" t="n">
-        <v>266.3369999999996</v>
+        <v>277.3139999999975</v>
       </c>
       <c r="L10" t="n">
-        <v>8455</v>
+        <v>15012</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.130000000000003</v>
+        <v>-2.850000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>264.2069999999996</v>
+        <v>274.4639999999975</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5397989355410999</v>
+        <v>0.5208499866773248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -985,39 +985,39 @@
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="J11" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="K11" t="n">
-        <v>264.1519999999981</v>
+        <v>266.3369999999996</v>
       </c>
       <c r="L11" t="n">
-        <v>14817</v>
+        <v>8455</v>
       </c>
       <c r="M11" t="n">
-        <v>-3.200999999999993</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N11" t="n">
-        <v>260.9509999999981</v>
+        <v>264.2069999999996</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5159613956941351</v>
+        <v>0.5397989355410999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1036,39 +1036,39 @@
         <v>2023</v>
       </c>
       <c r="F12" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="J12" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="K12" t="n">
-        <v>232.4879999999999</v>
+        <v>263.5059999999997</v>
       </c>
       <c r="L12" t="n">
-        <v>5063</v>
+        <v>6817</v>
       </c>
       <c r="M12" t="n">
         <v>-2.130000000000003</v>
       </c>
       <c r="N12" t="n">
-        <v>230.3579999999999</v>
+        <v>261.3759999999997</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5113569030219237</v>
+        <v>0.5184098577086695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1090,36 +1090,36 @@
         <v>70</v>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I13" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="K13" t="n">
-        <v>227.5919999999988</v>
+        <v>264.1519999999981</v>
       </c>
       <c r="L13" t="n">
-        <v>5803</v>
+        <v>14817</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.130000000000003</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N13" t="n">
-        <v>225.4619999999989</v>
+        <v>260.9509999999981</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5342064449422712</v>
+        <v>0.5159613956941351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1138,39 +1138,39 @@
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="I14" t="n">
         <v>0.08</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="K14" t="n">
-        <v>223.6499999999987</v>
+        <v>232.4879999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>24615</v>
+        <v>5063</v>
       </c>
       <c r="M14" t="n">
-        <v>-3.475000000000009</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N14" t="n">
-        <v>220.1749999999986</v>
+        <v>230.3579999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5011984562258786</v>
+        <v>0.5113569030219237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1189,39 +1189,39 @@
         <v>2023</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="J15" t="n">
         <v>0.02</v>
       </c>
       <c r="K15" t="n">
-        <v>210.3600000000002</v>
+        <v>227.5919999999988</v>
       </c>
       <c r="L15" t="n">
-        <v>7913</v>
+        <v>5803</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.060000000000002</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N15" t="n">
-        <v>208.3000000000002</v>
+        <v>225.4619999999989</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5463161885504866</v>
+        <v>0.5342064449422712</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1240,39 +1240,39 @@
         <v>2023</v>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="I16" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K16" t="n">
-        <v>205.920999999999</v>
+        <v>223.6499999999987</v>
       </c>
       <c r="L16" t="n">
-        <v>5713</v>
+        <v>24615</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.130000000000003</v>
+        <v>-3.475000000000009</v>
       </c>
       <c r="N16" t="n">
-        <v>203.790999999999</v>
+        <v>220.1749999999986</v>
       </c>
       <c r="O16" t="n">
-        <v>0.536320672151234</v>
+        <v>0.5011984562258786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1291,39 +1291,39 @@
         <v>2023</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I17" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K17" t="n">
-        <v>199.6179999999999</v>
+        <v>210.3600000000002</v>
       </c>
       <c r="L17" t="n">
-        <v>6167</v>
+        <v>7913</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.210000000000001</v>
+        <v>-2.060000000000002</v>
       </c>
       <c r="N17" t="n">
-        <v>197.4079999999999</v>
+        <v>208.3000000000002</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5182422571752878</v>
+        <v>0.5463161885504866</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1342,39 +1342,39 @@
         <v>2023</v>
       </c>
       <c r="F18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J18" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="K18" t="n">
-        <v>195.2499999999999</v>
+        <v>205.920999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>4887</v>
+        <v>5713</v>
       </c>
       <c r="M18" t="n">
         <v>-2.130000000000003</v>
       </c>
       <c r="N18" t="n">
-        <v>193.1199999999999</v>
+        <v>203.790999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5074687947616124</v>
+        <v>0.536320672151234</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1393,39 +1393,39 @@
         <v>2023</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J19" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="K19" t="n">
-        <v>166.8390000000004</v>
+        <v>199.6179999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>3917</v>
+        <v>6167</v>
       </c>
       <c r="M19" t="n">
         <v>-2.210000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>164.6290000000004</v>
+        <v>197.4079999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4975746744957876</v>
+        <v>0.5182422571752878</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1444,39 +1444,39 @@
         <v>2023</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K20" t="n">
-        <v>165.6479999999992</v>
+        <v>195.2499999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>4311</v>
+        <v>4887</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.724999999999994</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N20" t="n">
-        <v>163.9229999999992</v>
+        <v>193.1199999999999</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5244722802134075</v>
+        <v>0.5074687947616124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1495,39 +1495,39 @@
         <v>2023</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J21" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="K21" t="n">
-        <v>163.8849999999993</v>
+        <v>176.1710000000002</v>
       </c>
       <c r="L21" t="n">
-        <v>5583</v>
+        <v>4481</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.724999999999994</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N21" t="n">
-        <v>162.1599999999993</v>
+        <v>174.0410000000002</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5314347125201505</v>
+        <v>0.5420665030127204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1546,39 +1546,39 @@
         <v>2023</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="K22" t="n">
-        <v>133.7560000000004</v>
+        <v>166.8390000000004</v>
       </c>
       <c r="L22" t="n">
-        <v>3943</v>
+        <v>3917</v>
       </c>
       <c r="M22" t="n">
         <v>-2.210000000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>131.5460000000004</v>
+        <v>164.6290000000004</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5511032208977935</v>
+        <v>0.4975746744957876</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1597,39 +1597,39 @@
         <v>2023</v>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>3.100000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I23" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="K23" t="n">
-        <v>130.2060000000005</v>
+        <v>165.6479999999992</v>
       </c>
       <c r="L23" t="n">
-        <v>2730</v>
+        <v>4311</v>
       </c>
       <c r="M23" t="n">
         <v>-1.724999999999994</v>
       </c>
       <c r="N23" t="n">
-        <v>128.4810000000005</v>
+        <v>163.9229999999992</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5043956043956044</v>
+        <v>0.5244722802134075</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1648,39 +1648,39 @@
         <v>2023</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K24" t="n">
-        <v>121.9740000000003</v>
+        <v>163.8849999999993</v>
       </c>
       <c r="L24" t="n">
-        <v>2436</v>
+        <v>5583</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.809999999999988</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N24" t="n">
-        <v>120.1640000000003</v>
+        <v>162.1599999999993</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5036945812807881</v>
+        <v>0.5314347125201505</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1699,39 +1699,39 @@
         <v>2023</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K25" t="n">
-        <v>118.8659999999998</v>
+        <v>133.7560000000004</v>
       </c>
       <c r="L25" t="n">
-        <v>5769</v>
+        <v>3943</v>
       </c>
       <c r="M25" t="n">
         <v>-2.210000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>116.6559999999998</v>
+        <v>131.5460000000004</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4914196567862715</v>
+        <v>0.5511032208977935</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1753,36 +1753,36 @@
         <v>80</v>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>118.38</v>
+        <v>130.2060000000005</v>
       </c>
       <c r="L26" t="n">
-        <v>2064</v>
+        <v>2730</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.809999999999988</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N26" t="n">
-        <v>116.57</v>
+        <v>128.4810000000005</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4467054263565892</v>
+        <v>0.5043956043956044</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1801,39 +1801,39 @@
         <v>2023</v>
       </c>
       <c r="F27" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
         <v>0.08</v>
       </c>
       <c r="J27" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>105.1130000000002</v>
+        <v>121.9740000000003</v>
       </c>
       <c r="L27" t="n">
-        <v>2558</v>
+        <v>2436</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.724999999999994</v>
+        <v>-1.809999999999988</v>
       </c>
       <c r="N27" t="n">
-        <v>103.3880000000002</v>
+        <v>120.1640000000003</v>
       </c>
       <c r="O27" t="n">
-        <v>0.5062548866301798</v>
+        <v>0.5036945812807881</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1852,39 +1852,39 @@
         <v>2023</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G28" t="n">
-        <v>3.100000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="J28" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="K28" t="n">
-        <v>101.9830000000002</v>
+        <v>119.9580000000004</v>
       </c>
       <c r="L28" t="n">
-        <v>2818</v>
+        <v>3144</v>
       </c>
       <c r="M28" t="n">
         <v>-1.850000000000001</v>
       </c>
       <c r="N28" t="n">
-        <v>100.1330000000002</v>
+        <v>118.1080000000004</v>
       </c>
       <c r="O28" t="n">
-        <v>0.4840312278211498</v>
+        <v>0.5397582697201018</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1903,39 +1903,39 @@
         <v>2023</v>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="J29" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>99.06600000000022</v>
+        <v>118.8659999999998</v>
       </c>
       <c r="L29" t="n">
-        <v>2266</v>
+        <v>5769</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.809999999999988</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N29" t="n">
-        <v>97.25600000000023</v>
+        <v>116.6559999999998</v>
       </c>
       <c r="O29" t="n">
-        <v>0.5529567519858782</v>
+        <v>0.4914196567862715</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1954,39 +1954,39 @@
         <v>2023</v>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
         <v>0.16</v>
       </c>
       <c r="I30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0.1</v>
-      </c>
       <c r="K30" t="n">
-        <v>98.54300000000025</v>
+        <v>118.38</v>
       </c>
       <c r="L30" t="n">
-        <v>2681</v>
+        <v>2064</v>
       </c>
       <c r="M30" t="n">
         <v>-1.809999999999988</v>
       </c>
       <c r="N30" t="n">
-        <v>96.73300000000026</v>
+        <v>116.57</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5251771726967549</v>
+        <v>0.4467054263565892</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2005,39 +2005,39 @@
         <v>2023</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
         <v>0.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J31" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K31" t="n">
-        <v>91.7150000000001</v>
+        <v>105.1130000000002</v>
       </c>
       <c r="L31" t="n">
-        <v>2684</v>
+        <v>2558</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N31" t="n">
-        <v>89.86500000000009</v>
+        <v>103.3880000000002</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4694485842026825</v>
+        <v>0.5062548866301798</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2056,39 +2056,39 @@
         <v>2023</v>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J32" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="K32" t="n">
-        <v>89.28000000000009</v>
+        <v>101.9830000000002</v>
       </c>
       <c r="L32" t="n">
-        <v>2994</v>
+        <v>2818</v>
       </c>
       <c r="M32" t="n">
         <v>-1.850000000000001</v>
       </c>
       <c r="N32" t="n">
-        <v>87.43000000000009</v>
+        <v>100.1330000000002</v>
       </c>
       <c r="O32" t="n">
-        <v>0.5454241816967268</v>
+        <v>0.4840312278211498</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2107,39 +2107,39 @@
         <v>2023</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G33" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="J33" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="K33" t="n">
-        <v>78.6839999999999</v>
+        <v>99.06600000000022</v>
       </c>
       <c r="L33" t="n">
-        <v>3288</v>
+        <v>2266</v>
       </c>
       <c r="M33" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.809999999999988</v>
       </c>
       <c r="N33" t="n">
-        <v>76.83399999999989</v>
+        <v>97.25600000000023</v>
       </c>
       <c r="O33" t="n">
-        <v>0.5249391727493917</v>
+        <v>0.5529567519858782</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2158,39 +2158,39 @@
         <v>2023</v>
       </c>
       <c r="F34" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>3.100000000000001</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="K34" t="n">
-        <v>70.4749999999997</v>
+        <v>98.54300000000025</v>
       </c>
       <c r="L34" t="n">
-        <v>2870</v>
+        <v>2681</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.809999999999988</v>
       </c>
       <c r="N34" t="n">
-        <v>68.62499999999969</v>
+        <v>96.73300000000026</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5198606271777003</v>
+        <v>0.5251771726967549</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2212,36 +2212,36 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J35" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K35" t="n">
-        <v>70.47399999999985</v>
+        <v>91.7150000000001</v>
       </c>
       <c r="L35" t="n">
-        <v>2104</v>
+        <v>2684</v>
       </c>
       <c r="M35" t="n">
         <v>-1.850000000000001</v>
       </c>
       <c r="N35" t="n">
-        <v>68.62399999999985</v>
+        <v>89.86500000000009</v>
       </c>
       <c r="O35" t="n">
-        <v>0.5261406844106464</v>
+        <v>0.4694485842026825</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>2023</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2269,30 +2269,30 @@
         <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="J36" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="K36" t="n">
-        <v>69.20399999999988</v>
+        <v>89.28000000000009</v>
       </c>
       <c r="L36" t="n">
-        <v>3094</v>
+        <v>2994</v>
       </c>
       <c r="M36" t="n">
         <v>-1.850000000000001</v>
       </c>
       <c r="N36" t="n">
-        <v>67.35399999999987</v>
+        <v>87.43000000000009</v>
       </c>
       <c r="O36" t="n">
-        <v>0.532967032967033</v>
+        <v>0.5454241816967268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2311,39 +2311,39 @@
         <v>2023</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
         <v>0.08</v>
       </c>
       <c r="J37" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="K37" t="n">
-        <v>68.79499999999972</v>
+        <v>83.41799999999979</v>
       </c>
       <c r="L37" t="n">
-        <v>1960</v>
+        <v>1998</v>
       </c>
       <c r="M37" t="n">
         <v>-1.809999999999988</v>
       </c>
       <c r="N37" t="n">
-        <v>66.98499999999973</v>
+        <v>81.60799999999981</v>
       </c>
       <c r="O37" t="n">
-        <v>0.525</v>
+        <v>0.5580580580580581</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2362,39 +2362,39 @@
         <v>2023</v>
       </c>
       <c r="F38" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K38" t="n">
-        <v>62.50400000000023</v>
+        <v>78.6839999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>2834</v>
+        <v>3288</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.75</v>
+        <v>-1.850000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>60.75400000000023</v>
+        <v>76.83399999999989</v>
       </c>
       <c r="O38" t="n">
-        <v>0.515878616796048</v>
+        <v>0.5249391727493917</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2413,39 +2413,39 @@
         <v>2023</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="J39" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="K39" t="n">
-        <v>58.84399999999984</v>
+        <v>70.4749999999997</v>
       </c>
       <c r="L39" t="n">
-        <v>2104</v>
+        <v>2870</v>
       </c>
       <c r="M39" t="n">
         <v>-1.850000000000001</v>
       </c>
       <c r="N39" t="n">
-        <v>56.99399999999984</v>
+        <v>68.62499999999969</v>
       </c>
       <c r="O39" t="n">
-        <v>0.5446768060836502</v>
+        <v>0.5198606271777003</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2464,84 +2464,390 @@
         <v>2023</v>
       </c>
       <c r="F40" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="K40" t="n">
-        <v>43.88099999999986</v>
+        <v>70.47399999999985</v>
       </c>
       <c r="L40" t="n">
-        <v>2368</v>
+        <v>2104</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.809999999999988</v>
+        <v>-1.850000000000001</v>
       </c>
       <c r="N40" t="n">
-        <v>42.07099999999987</v>
+        <v>68.62399999999985</v>
       </c>
       <c r="O40" t="n">
-        <v>0.5160472972972973</v>
+        <v>0.5261406844106464</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F41" t="n">
+        <v>50</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K41" t="n">
+        <v>69.20399999999988</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3094</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N41" t="n">
+        <v>67.35399999999987</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.532967032967033</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K42" t="n">
+        <v>68.79499999999972</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1960</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N42" t="n">
+        <v>66.98499999999973</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F43" t="n">
+        <v>80</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K43" t="n">
+        <v>62.50400000000023</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2834</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>60.75400000000023</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.515878616796048</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K44" t="n">
+        <v>58.84399999999984</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2104</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N44" t="n">
+        <v>56.99399999999984</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.5446768060836502</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K45" t="n">
+        <v>58.03699999999976</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N45" t="n">
+        <v>56.18699999999976</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.5335570469798657</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F46" t="n">
+        <v>70</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K46" t="n">
+        <v>43.88099999999986</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2368</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N46" t="n">
+        <v>42.07099999999987</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.5160472972972973</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F47" t="n">
         <v>90</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G47" t="n">
         <v>3.9</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>0.02</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>0.08</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J47" t="n">
         <v>0.1</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K47" t="n">
         <v>40.72299999999966</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>1902</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M47" t="n">
         <v>-1.809999999999988</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N47" t="n">
         <v>38.91299999999967</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O47" t="n">
         <v>0.5052576235541535</v>
       </c>
     </row>

--- a/report/summary_CL_M15_2020-2023_0.xlsx
+++ b/report/summary_CL_M15_2020-2023_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,39 +526,39 @@
         <v>2023</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H2" t="n">
         <v>0.14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="K2" t="n">
-        <v>502.7880000000025</v>
+        <v>569.7359999999956</v>
       </c>
       <c r="L2" t="n">
-        <v>19707</v>
+        <v>21133</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.885999999999996</v>
+        <v>-7.691000000000003</v>
       </c>
       <c r="N2" t="n">
-        <v>498.9020000000024</v>
+        <v>562.0449999999955</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4818084944435987</v>
+        <v>0.5103865991577154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -577,10 +577,10 @@
         <v>2023</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H3" t="n">
         <v>0.12</v>
@@ -592,24 +592,24 @@
         <v>0.12</v>
       </c>
       <c r="K3" t="n">
-        <v>465.6730000000028</v>
+        <v>514.6140000000021</v>
       </c>
       <c r="L3" t="n">
-        <v>16694</v>
+        <v>21106</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.200999999999993</v>
+        <v>-7.691000000000003</v>
       </c>
       <c r="N3" t="n">
-        <v>462.4720000000028</v>
+        <v>506.923000000002</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5108422187612316</v>
+        <v>0.5047853690893584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -628,39 +628,39 @@
         <v>2023</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J4" t="n">
         <v>0.14</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9500000000012</v>
+        <v>502.7880000000025</v>
       </c>
       <c r="L4" t="n">
-        <v>13573</v>
+        <v>19707</v>
       </c>
       <c r="M4" t="n">
-        <v>-4.125999999999991</v>
+        <v>-3.885999999999996</v>
       </c>
       <c r="N4" t="n">
-        <v>424.8240000000013</v>
+        <v>498.9020000000024</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4760185662712739</v>
+        <v>0.4818084944435987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,39 +679,39 @@
         <v>2023</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="K5" t="n">
-        <v>409.1629999999947</v>
+        <v>480.5749999999974</v>
       </c>
       <c r="L5" t="n">
-        <v>21107</v>
+        <v>19707</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.200999999999993</v>
+        <v>-3.885999999999996</v>
       </c>
       <c r="N5" t="n">
-        <v>405.9619999999946</v>
+        <v>476.6889999999975</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5316245795233808</v>
+        <v>0.4745014461866342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,39 +730,39 @@
         <v>2023</v>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K6" t="n">
-        <v>394.3629999999953</v>
+        <v>469.7119999999977</v>
       </c>
       <c r="L6" t="n">
-        <v>14709</v>
+        <v>17145</v>
       </c>
       <c r="M6" t="n">
-        <v>-3.200999999999993</v>
+        <v>-2.600000000000009</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1619999999953</v>
+        <v>467.1119999999976</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5147868651845808</v>
+        <v>0.505453484981044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,39 +781,39 @@
         <v>2023</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="K7" t="n">
-        <v>386.2469999999978</v>
+        <v>465.6730000000028</v>
       </c>
       <c r="L7" t="n">
-        <v>14650</v>
+        <v>16694</v>
       </c>
       <c r="M7" t="n">
         <v>-3.200999999999993</v>
       </c>
       <c r="N7" t="n">
-        <v>383.0459999999978</v>
+        <v>462.4720000000028</v>
       </c>
       <c r="O7" t="n">
-        <v>0.504505119453925</v>
+        <v>0.5108422187612316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -832,39 +832,39 @@
         <v>2023</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K8" t="n">
-        <v>332.7719999999978</v>
+        <v>438.385</v>
       </c>
       <c r="L8" t="n">
-        <v>11168</v>
+        <v>13573</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.600000000000009</v>
+        <v>-2.850000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>330.1719999999978</v>
+        <v>435.535</v>
       </c>
       <c r="O8" t="n">
-        <v>0.509939111747851</v>
+        <v>0.4839018639946954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -883,39 +883,39 @@
         <v>2023</v>
       </c>
       <c r="F9" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.04</v>
       </c>
       <c r="J9" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="K9" t="n">
-        <v>308.7529999999972</v>
+        <v>428.9500000000012</v>
       </c>
       <c r="L9" t="n">
-        <v>16509</v>
+        <v>13573</v>
       </c>
       <c r="M9" t="n">
-        <v>-3.200999999999993</v>
+        <v>-4.125999999999991</v>
       </c>
       <c r="N9" t="n">
-        <v>305.5519999999972</v>
+        <v>424.8240000000013</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5086922284814344</v>
+        <v>0.4760185662712739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -934,39 +934,39 @@
         <v>2023</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.04</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.08</v>
-      </c>
       <c r="J10" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="K10" t="n">
-        <v>277.3139999999975</v>
+        <v>409.1629999999947</v>
       </c>
       <c r="L10" t="n">
-        <v>15012</v>
+        <v>21107</v>
       </c>
       <c r="M10" t="n">
-        <v>-2.850000000000001</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N10" t="n">
-        <v>274.4639999999975</v>
+        <v>405.9619999999946</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5208499866773248</v>
+        <v>0.5316245795233808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -985,39 +985,39 @@
         <v>2023</v>
       </c>
       <c r="F11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>266.3369999999996</v>
+        <v>394.3629999999953</v>
       </c>
       <c r="L11" t="n">
-        <v>8455</v>
+        <v>14709</v>
       </c>
       <c r="M11" t="n">
-        <v>-2.130000000000003</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N11" t="n">
-        <v>264.2069999999996</v>
+        <v>391.1619999999953</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5397989355410999</v>
+        <v>0.5147868651845808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1036,39 +1036,39 @@
         <v>2023</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
         <v>0.18</v>
       </c>
       <c r="I12" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="J12" t="n">
         <v>0.06</v>
       </c>
       <c r="K12" t="n">
-        <v>263.5059999999997</v>
+        <v>386.2469999999978</v>
       </c>
       <c r="L12" t="n">
-        <v>6817</v>
+        <v>14650</v>
       </c>
       <c r="M12" t="n">
-        <v>-2.130000000000003</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N12" t="n">
-        <v>261.3759999999997</v>
+        <v>383.0459999999978</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5184098577086695</v>
+        <v>0.504505119453925</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1087,39 +1087,39 @@
         <v>2023</v>
       </c>
       <c r="F13" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="J13" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="K13" t="n">
-        <v>264.1519999999981</v>
+        <v>352.1659999999957</v>
       </c>
       <c r="L13" t="n">
-        <v>14817</v>
+        <v>13568</v>
       </c>
       <c r="M13" t="n">
-        <v>-3.200999999999993</v>
+        <v>-2.850000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>260.9509999999981</v>
+        <v>349.3159999999957</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5159613956941351</v>
+        <v>0.5347877358490566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1138,90 +1138,90 @@
         <v>2023</v>
       </c>
       <c r="F14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="K14" t="n">
-        <v>232.4879999999999</v>
+        <v>343.6990000000009</v>
       </c>
       <c r="L14" t="n">
-        <v>5063</v>
+        <v>11922</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.130000000000003</v>
+        <v>-2.850000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>230.3579999999999</v>
+        <v>340.8490000000008</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5113569030219237</v>
+        <v>0.5140077168260359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F15" t="n">
-        <v>70</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.02</v>
-      </c>
       <c r="K15" t="n">
-        <v>227.5919999999988</v>
+        <v>332.7719999999978</v>
       </c>
       <c r="L15" t="n">
-        <v>5803</v>
+        <v>11168</v>
       </c>
       <c r="M15" t="n">
-        <v>-2.130000000000003</v>
+        <v>-2.600000000000009</v>
       </c>
       <c r="N15" t="n">
-        <v>225.4619999999989</v>
+        <v>330.1719999999978</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5342064449422712</v>
+        <v>0.509939111747851</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1240,39 +1240,39 @@
         <v>2023</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="K16" t="n">
-        <v>223.6499999999987</v>
+        <v>330.4060000000004</v>
       </c>
       <c r="L16" t="n">
-        <v>24615</v>
+        <v>7791</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.475000000000009</v>
+        <v>-1.790000000000006</v>
       </c>
       <c r="N16" t="n">
-        <v>220.1749999999986</v>
+        <v>328.6160000000004</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5011984562258786</v>
+        <v>0.5159799768964189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1291,39 +1291,39 @@
         <v>2023</v>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="K17" t="n">
-        <v>210.3600000000002</v>
+        <v>309.5539999999993</v>
       </c>
       <c r="L17" t="n">
-        <v>7913</v>
+        <v>9233</v>
       </c>
       <c r="M17" t="n">
         <v>-2.060000000000002</v>
       </c>
       <c r="N17" t="n">
-        <v>208.3000000000002</v>
+        <v>307.4939999999993</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5463161885504866</v>
+        <v>0.5112097909671829</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1342,39 +1342,39 @@
         <v>2023</v>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I18" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="K18" t="n">
-        <v>205.920999999999</v>
+        <v>308.7529999999972</v>
       </c>
       <c r="L18" t="n">
-        <v>5713</v>
+        <v>16509</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.130000000000003</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N18" t="n">
-        <v>203.790999999999</v>
+        <v>305.5519999999972</v>
       </c>
       <c r="O18" t="n">
-        <v>0.536320672151234</v>
+        <v>0.5086922284814344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1393,39 +1393,39 @@
         <v>2023</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="I19" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="K19" t="n">
-        <v>199.6179999999999</v>
+        <v>277.3139999999975</v>
       </c>
       <c r="L19" t="n">
-        <v>6167</v>
+        <v>15012</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.210000000000001</v>
+        <v>-2.850000000000001</v>
       </c>
       <c r="N19" t="n">
-        <v>197.4079999999999</v>
+        <v>274.4639999999975</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5182422571752878</v>
+        <v>0.5208499866773248</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1444,39 +1444,39 @@
         <v>2023</v>
       </c>
       <c r="F20" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J20" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="K20" t="n">
-        <v>195.2499999999999</v>
+        <v>271.0750000000007</v>
       </c>
       <c r="L20" t="n">
-        <v>4887</v>
+        <v>7251</v>
       </c>
       <c r="M20" t="n">
         <v>-2.130000000000003</v>
       </c>
       <c r="N20" t="n">
-        <v>193.1199999999999</v>
+        <v>268.9450000000007</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5074687947616124</v>
+        <v>0.497310715763343</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1495,39 +1495,39 @@
         <v>2023</v>
       </c>
       <c r="F21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="K21" t="n">
-        <v>176.1710000000002</v>
+        <v>266.3369999999996</v>
       </c>
       <c r="L21" t="n">
-        <v>4481</v>
+        <v>8455</v>
       </c>
       <c r="M21" t="n">
         <v>-2.130000000000003</v>
       </c>
       <c r="N21" t="n">
-        <v>174.0410000000002</v>
+        <v>264.2069999999996</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5420665030127204</v>
+        <v>0.5397989355410999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1549,36 +1549,36 @@
         <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J22" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="K22" t="n">
-        <v>166.8390000000004</v>
+        <v>263.5059999999997</v>
       </c>
       <c r="L22" t="n">
-        <v>3917</v>
+        <v>6817</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.210000000000001</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N22" t="n">
-        <v>164.6290000000004</v>
+        <v>261.3759999999997</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4975746744957876</v>
+        <v>0.5184098577086695</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1597,39 +1597,39 @@
         <v>2023</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
         <v>0.1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K23" t="n">
-        <v>165.6479999999992</v>
+        <v>264.1519999999981</v>
       </c>
       <c r="L23" t="n">
-        <v>4311</v>
+        <v>14817</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.724999999999994</v>
+        <v>-3.200999999999993</v>
       </c>
       <c r="N23" t="n">
-        <v>163.9229999999992</v>
+        <v>260.9509999999981</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5244722802134075</v>
+        <v>0.5159613956941351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1648,39 +1648,39 @@
         <v>2023</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="J24" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="K24" t="n">
-        <v>163.8849999999993</v>
+        <v>234.0560000000002</v>
       </c>
       <c r="L24" t="n">
-        <v>5583</v>
+        <v>5193</v>
       </c>
       <c r="M24" t="n">
-        <v>-1.724999999999994</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N24" t="n">
-        <v>162.1599999999993</v>
+        <v>231.9260000000002</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5314347125201505</v>
+        <v>0.5002888503755055</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1699,39 +1699,39 @@
         <v>2023</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I25" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="K25" t="n">
-        <v>133.7560000000004</v>
+        <v>232.4879999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>3943</v>
+        <v>5063</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.210000000000001</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N25" t="n">
-        <v>131.5460000000004</v>
+        <v>230.3579999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5511032208977935</v>
+        <v>0.5113569030219237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1750,39 +1750,39 @@
         <v>2023</v>
       </c>
       <c r="F26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G26" t="n">
-        <v>3.100000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="I26" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K26" t="n">
-        <v>130.2060000000005</v>
+        <v>227.5919999999988</v>
       </c>
       <c r="L26" t="n">
-        <v>2730</v>
+        <v>5803</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.724999999999994</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N26" t="n">
-        <v>128.4810000000005</v>
+        <v>225.4619999999989</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5043956043956044</v>
+        <v>0.5342064449422712</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1801,39 +1801,39 @@
         <v>2023</v>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I27" t="n">
         <v>0.08</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K27" t="n">
-        <v>121.9740000000003</v>
+        <v>223.6499999999987</v>
       </c>
       <c r="L27" t="n">
-        <v>2436</v>
+        <v>24615</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.809999999999988</v>
+        <v>-3.475000000000009</v>
       </c>
       <c r="N27" t="n">
-        <v>120.1640000000003</v>
+        <v>220.1749999999986</v>
       </c>
       <c r="O27" t="n">
-        <v>0.5036945812807881</v>
+        <v>0.5011984562258786</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1852,39 +1852,39 @@
         <v>2023</v>
       </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="I28" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K28" t="n">
-        <v>119.9580000000004</v>
+        <v>210.3600000000002</v>
       </c>
       <c r="L28" t="n">
-        <v>3144</v>
+        <v>7913</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.060000000000002</v>
       </c>
       <c r="N28" t="n">
-        <v>118.1080000000004</v>
+        <v>208.3000000000002</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5397582697201018</v>
+        <v>0.5463161885504866</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1903,39 +1903,39 @@
         <v>2023</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G29" t="n">
         <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K29" t="n">
-        <v>118.8659999999998</v>
+        <v>205.920999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>5769</v>
+        <v>5713</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.210000000000001</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N29" t="n">
-        <v>116.6559999999998</v>
+        <v>203.790999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>0.4914196567862715</v>
+        <v>0.536320672151234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1954,39 +1954,39 @@
         <v>2023</v>
       </c>
       <c r="F30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G30" t="n">
-        <v>3.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0.16</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.02</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>118.38</v>
+        <v>199.7400000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>2064</v>
+        <v>3376</v>
       </c>
       <c r="M30" t="n">
-        <v>-1.809999999999988</v>
+        <v>-1.765000000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>116.57</v>
+        <v>197.9750000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>0.4467054263565892</v>
+        <v>0.4881516587677725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2005,39 +2005,39 @@
         <v>2023</v>
       </c>
       <c r="F31" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="J31" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="K31" t="n">
-        <v>105.1130000000002</v>
+        <v>199.6179999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>2558</v>
+        <v>6167</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.724999999999994</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N31" t="n">
-        <v>103.3880000000002</v>
+        <v>197.4079999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5062548866301798</v>
+        <v>0.5182422571752878</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2056,39 +2056,39 @@
         <v>2023</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
-        <v>3.100000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.18</v>
       </c>
-      <c r="I32" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.16</v>
-      </c>
       <c r="K32" t="n">
-        <v>101.9830000000002</v>
+        <v>196.7809999999998</v>
       </c>
       <c r="L32" t="n">
-        <v>2818</v>
+        <v>4618</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N32" t="n">
-        <v>100.1330000000002</v>
+        <v>194.6509999999998</v>
       </c>
       <c r="O32" t="n">
-        <v>0.4840312278211498</v>
+        <v>0.5006496318752707</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2107,39 +2107,39 @@
         <v>2023</v>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="K33" t="n">
-        <v>99.06600000000022</v>
+        <v>195.2499999999999</v>
       </c>
       <c r="L33" t="n">
-        <v>2266</v>
+        <v>4887</v>
       </c>
       <c r="M33" t="n">
-        <v>-1.809999999999988</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N33" t="n">
-        <v>97.25600000000023</v>
+        <v>193.1199999999999</v>
       </c>
       <c r="O33" t="n">
-        <v>0.5529567519858782</v>
+        <v>0.5074687947616124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2158,39 +2158,39 @@
         <v>2023</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K34" t="n">
-        <v>98.54300000000025</v>
+        <v>176.1710000000002</v>
       </c>
       <c r="L34" t="n">
-        <v>2681</v>
+        <v>4481</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.809999999999988</v>
+        <v>-2.130000000000003</v>
       </c>
       <c r="N34" t="n">
-        <v>96.73300000000026</v>
+        <v>174.0410000000002</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5251771726967549</v>
+        <v>0.5420665030127204</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2209,39 +2209,39 @@
         <v>2023</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
         <v>0.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K35" t="n">
-        <v>91.7150000000001</v>
+        <v>166.8390000000004</v>
       </c>
       <c r="L35" t="n">
-        <v>2684</v>
+        <v>3917</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N35" t="n">
-        <v>89.86500000000009</v>
+        <v>164.6290000000004</v>
       </c>
       <c r="O35" t="n">
-        <v>0.4694485842026825</v>
+        <v>0.4975746744957876</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2260,39 +2260,39 @@
         <v>2023</v>
       </c>
       <c r="F36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J36" t="n">
         <v>0.12</v>
       </c>
       <c r="K36" t="n">
-        <v>89.28000000000009</v>
+        <v>165.6479999999992</v>
       </c>
       <c r="L36" t="n">
-        <v>2994</v>
+        <v>4311</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N36" t="n">
-        <v>87.43000000000009</v>
+        <v>163.9229999999992</v>
       </c>
       <c r="O36" t="n">
-        <v>0.5454241816967268</v>
+        <v>0.5244722802134075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2311,39 +2311,39 @@
         <v>2023</v>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G37" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="K37" t="n">
-        <v>83.41799999999979</v>
+        <v>163.8849999999993</v>
       </c>
       <c r="L37" t="n">
-        <v>1998</v>
+        <v>5583</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.809999999999988</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N37" t="n">
-        <v>81.60799999999981</v>
+        <v>162.1599999999993</v>
       </c>
       <c r="O37" t="n">
-        <v>0.5580580580580581</v>
+        <v>0.5314347125201505</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2362,39 +2362,39 @@
         <v>2023</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="J38" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="K38" t="n">
-        <v>78.6839999999999</v>
+        <v>137.13</v>
       </c>
       <c r="L38" t="n">
-        <v>3288</v>
+        <v>5895</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N38" t="n">
-        <v>76.83399999999989</v>
+        <v>135.405</v>
       </c>
       <c r="O38" t="n">
-        <v>0.5249391727493917</v>
+        <v>0.5228159457167091</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2413,39 +2413,39 @@
         <v>2023</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>3.100000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="J39" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="K39" t="n">
-        <v>70.4749999999997</v>
+        <v>133.7560000000004</v>
       </c>
       <c r="L39" t="n">
-        <v>2870</v>
+        <v>3943</v>
       </c>
       <c r="M39" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N39" t="n">
-        <v>68.62499999999969</v>
+        <v>131.5460000000004</v>
       </c>
       <c r="O39" t="n">
-        <v>0.5198606271777003</v>
+        <v>0.5511032208977935</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2464,39 +2464,39 @@
         <v>2023</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.14</v>
-      </c>
       <c r="K40" t="n">
-        <v>70.47399999999985</v>
+        <v>130.2060000000005</v>
       </c>
       <c r="L40" t="n">
-        <v>2104</v>
+        <v>2730</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.724999999999994</v>
       </c>
       <c r="N40" t="n">
-        <v>68.62399999999985</v>
+        <v>128.4810000000005</v>
       </c>
       <c r="O40" t="n">
-        <v>0.5261406844106464</v>
+        <v>0.5043956043956044</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2515,39 +2515,39 @@
         <v>2023</v>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.06</v>
       </c>
-      <c r="I41" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.14</v>
-      </c>
       <c r="K41" t="n">
-        <v>69.20399999999988</v>
+        <v>124.0939999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>3094</v>
+        <v>5403</v>
       </c>
       <c r="M41" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>67.35399999999987</v>
+        <v>121.8839999999998</v>
       </c>
       <c r="O41" t="n">
-        <v>0.532967032967033</v>
+        <v>0.5274847307051638</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2566,39 +2566,39 @@
         <v>2023</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I42" t="n">
         <v>0.08</v>
       </c>
       <c r="J42" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>68.79499999999972</v>
+        <v>121.9740000000003</v>
       </c>
       <c r="L42" t="n">
-        <v>1960</v>
+        <v>2436</v>
       </c>
       <c r="M42" t="n">
         <v>-1.809999999999988</v>
       </c>
       <c r="N42" t="n">
-        <v>66.98499999999973</v>
+        <v>120.1640000000003</v>
       </c>
       <c r="O42" t="n">
-        <v>0.525</v>
+        <v>0.5036945812807881</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2617,39 +2617,39 @@
         <v>2023</v>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="I43" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.04</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.06</v>
-      </c>
       <c r="K43" t="n">
-        <v>62.50400000000023</v>
+        <v>119.9580000000004</v>
       </c>
       <c r="L43" t="n">
-        <v>2834</v>
+        <v>3144</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.75</v>
+        <v>-1.850000000000001</v>
       </c>
       <c r="N43" t="n">
-        <v>60.75400000000023</v>
+        <v>118.1080000000004</v>
       </c>
       <c r="O43" t="n">
-        <v>0.515878616796048</v>
+        <v>0.5397582697201018</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2668,39 +2668,39 @@
         <v>2023</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>58.84399999999984</v>
+        <v>118.8659999999998</v>
       </c>
       <c r="L44" t="n">
-        <v>2104</v>
+        <v>5769</v>
       </c>
       <c r="M44" t="n">
-        <v>-1.850000000000001</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N44" t="n">
-        <v>56.99399999999984</v>
+        <v>116.6559999999998</v>
       </c>
       <c r="O44" t="n">
-        <v>0.5446768060836502</v>
+        <v>0.4914196567862715</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2719,39 +2719,39 @@
         <v>2023</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J45" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>58.03699999999976</v>
+        <v>118.38</v>
       </c>
       <c r="L45" t="n">
-        <v>2384</v>
+        <v>2064</v>
       </c>
       <c r="M45" t="n">
-        <v>-1.850000000000001</v>
+        <v>-1.809999999999988</v>
       </c>
       <c r="N45" t="n">
-        <v>56.18699999999976</v>
+        <v>116.57</v>
       </c>
       <c r="O45" t="n">
-        <v>0.5335570469798657</v>
+        <v>0.4467054263565892</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2770,84 +2770,1053 @@
         <v>2023</v>
       </c>
       <c r="F46" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I46" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>43.88099999999986</v>
+        <v>118.3979999999994</v>
       </c>
       <c r="L46" t="n">
-        <v>2368</v>
+        <v>4175</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.809999999999988</v>
+        <v>-2.210000000000001</v>
       </c>
       <c r="N46" t="n">
-        <v>42.07099999999987</v>
+        <v>116.1879999999994</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5160472972972973</v>
+        <v>0.5020359281437126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K47" t="n">
+        <v>117.3719999999999</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3476</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N47" t="n">
+        <v>115.5219999999999</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.498849252013809</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F48" t="n">
+        <v>70</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K48" t="n">
+        <v>105.1130000000002</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2558</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-1.724999999999994</v>
+      </c>
+      <c r="N48" t="n">
+        <v>103.3880000000002</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.5062548866301798</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F49" t="n">
+        <v>10</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K49" t="n">
+        <v>101.9830000000002</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2818</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N49" t="n">
+        <v>100.1330000000002</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.4840312278211498</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K50" t="n">
+        <v>99.06600000000022</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2266</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N50" t="n">
+        <v>97.25600000000023</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.5529567519858782</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>98.54300000000025</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2681</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N51" t="n">
+        <v>96.73300000000026</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.5251771726967549</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F52" t="n">
+        <v>50</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K52" t="n">
+        <v>93.4639999999999</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3695</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-1.724999999999994</v>
+      </c>
+      <c r="N52" t="n">
+        <v>91.7389999999999</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.5461434370771313</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K53" t="n">
+        <v>91.7150000000001</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2684</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N53" t="n">
+        <v>89.86500000000009</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.4694485842026825</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F54" t="n">
+        <v>60</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K54" t="n">
+        <v>89.28000000000009</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2994</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N54" t="n">
+        <v>87.43000000000009</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.5454241816967268</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F55" t="n">
+        <v>80</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K55" t="n">
+        <v>83.41799999999979</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1998</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N55" t="n">
+        <v>81.60799999999981</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.5580580580580581</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K56" t="n">
+        <v>78.6839999999999</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3288</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N56" t="n">
+        <v>76.83399999999989</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.5249391727493917</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F57" t="n">
+        <v>20</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K57" t="n">
+        <v>70.4749999999997</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2870</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N57" t="n">
+        <v>68.62499999999969</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.5198606271777003</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K58" t="n">
+        <v>70.47399999999985</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2104</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N58" t="n">
+        <v>68.62399999999985</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.5261406844106464</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F59" t="n">
+        <v>50</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K59" t="n">
+        <v>69.20399999999988</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3094</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N59" t="n">
+        <v>67.35399999999987</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.532967032967033</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K60" t="n">
+        <v>68.79499999999972</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1960</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N60" t="n">
+        <v>66.98499999999973</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F61" t="n">
+        <v>80</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K61" t="n">
+        <v>62.50400000000023</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2834</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="N61" t="n">
+        <v>60.75400000000023</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.515878616796048</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K62" t="n">
+        <v>58.84399999999984</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2104</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N62" t="n">
+        <v>56.99399999999984</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.5446768060836502</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F63" t="n">
+        <v>10</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K63" t="n">
+        <v>58.03699999999976</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2384</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-1.850000000000001</v>
+      </c>
+      <c r="N63" t="n">
+        <v>56.18699999999976</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.5335570469798657</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K64" t="n">
+        <v>48.64599999999999</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2096</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-1.284999999999997</v>
+      </c>
+      <c r="N64" t="n">
+        <v>47.361</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.5424618320610687</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F65" t="n">
+        <v>70</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K65" t="n">
+        <v>43.88099999999986</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2368</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-1.809999999999988</v>
+      </c>
+      <c r="N65" t="n">
+        <v>42.07099999999987</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.5160472972972973</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CL</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>M15</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F66" t="n">
         <v>90</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G66" t="n">
         <v>3.9</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H66" t="n">
         <v>0.02</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I66" t="n">
         <v>0.08</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J66" t="n">
         <v>0.1</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K66" t="n">
         <v>40.72299999999966</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L66" t="n">
         <v>1902</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M66" t="n">
         <v>-1.809999999999988</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N66" t="n">
         <v>38.91299999999967</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O66" t="n">
         <v>0.5052576235541535</v>
       </c>
     </row>
